--- a/Prog Calli.xlsx
+++ b/Prog Calli.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D648776\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D648776\Documents\Others\karl-sw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C0BE0C-2331-4505-A85B-9BDAB8C4CA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{409BCE8A-3287-4CD6-A0FF-981B47AC6B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2460" windowWidth="29040" windowHeight="15720" xr2:uid="{22730877-1A71-490B-BA4E-03BA24752C89}"/>
+    <workbookView xWindow="38280" yWindow="2460" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{22730877-1A71-490B-BA4E-03BA24752C89}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="Séance" sheetId="1" r:id="rId1"/>
+    <sheet name="Mobi" sheetId="4" r:id="rId2"/>
+    <sheet name="Glossaire" sheetId="5" r:id="rId3"/>
+    <sheet name="Rehab" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="225">
   <si>
     <t>FLPU</t>
   </si>
@@ -584,6 +585,205 @@
   </si>
   <si>
     <t>tuck to straddle x6</t>
+  </si>
+  <si>
+    <t>🕒 Moment</t>
+  </si>
+  <si>
+    <t>🧠 Exercice</t>
+  </si>
+  <si>
+    <t>🎯 Objectif</t>
+  </si>
+  <si>
+    <t>🧾 Description précise</t>
+  </si>
+  <si>
+    <t>📊 Format</t>
+  </si>
+  <si>
+    <t>Début</t>
+  </si>
+  <si>
+    <t>Wall slides</t>
+  </si>
+  <si>
+    <t>Activer le trapèze inférieur, améliorer la coordination scapulaire</t>
+  </si>
+  <si>
+    <t>Dos plaqué contre un mur, bras en "W" (coudes à 90°), monte les bras au-dessus de la tête lentement en gardant tout le bras + dos en contact avec le mur.</t>
+  </si>
+  <si>
+    <t>2 × 10 reps lentes</t>
+  </si>
+  <si>
+    <t>Scapula circles bras tendus</t>
+  </si>
+  <si>
+    <t>Mobiliser les omoplates, échauffer les muscles profonds</t>
+  </si>
+  <si>
+    <t>Bras devant toi, tendus, trace de grands cercles uniquement avec les scapulas (pas les bras) — fais des ronds en avant puis en arrière, lentement.</t>
+  </si>
+  <si>
+    <t>10 reps avant + 10 reps arrière</t>
+  </si>
+  <si>
+    <r>
+      <t>I-Y-T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (au sol ou sur banc)</t>
+    </r>
+  </si>
+  <si>
+    <t>Activer rhomboïdes, trapèze moyen et inf</t>
+  </si>
+  <si>
+    <t>Couché à plat ventre ou penché sur banc : fais 10 reps bras en I (devant toi), puis Y (diagonale), puis T (sur le côté), en levant légèrement les bras sans bouger le reste du corps. Garde une pause en haut.</t>
+  </si>
+  <si>
+    <t>1 à 2 circuits de I-Y-T (10 reps chacun)</t>
+  </si>
+  <si>
+    <t>Dead hang scapulaire + respiration</t>
+  </si>
+  <si>
+    <t>Engager les fixateurs d’omoplate + oxygéner la zone</t>
+  </si>
+  <si>
+    <t>Accroche-toi à une barre, laisse le corps pendre mais maintiens une légère élévation scapulaire (sans tirer). Inspire lentement, expire longuement, contrôle le tout.</t>
+  </si>
+  <si>
+    <t>3 cycles de 5 respi profondes</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Trap 3 Raise</t>
+  </si>
+  <si>
+    <t>Renforcer le trapèze inférieur</t>
+  </si>
+  <si>
+    <t>Couché sur banc (ou penché à 45°), lève un bras dans l’axe de l’omoplate (environ 130° par rapport au tronc). Garde le pouce vers le haut, bras tendu, pause 1s en haut.</t>
+  </si>
+  <si>
+    <t>3 × 8-12 reps de chaque bras</t>
+  </si>
+  <si>
+    <r>
+      <t>Scapula Rows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (tirage scapulaire)</t>
+    </r>
+  </si>
+  <si>
+    <t>Améliorer la force de rétraction</t>
+  </si>
+  <si>
+    <t>À la poulie, TRX ou élastique : fais un tirage sans bouger les coudes au début, concentre-toi sur "rentrer les omoplates", puis termine avec les bras. Marque 2s en position rétractée.</t>
+  </si>
+  <si>
+    <t>3 × 10 reps lentes</t>
+  </si>
+  <si>
+    <t>Reverse Snow Angels</t>
+  </si>
+  <si>
+    <t>Renforcer les extenseurs du haut du dos + coordination fine</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Couché au sol sur le ventre, bras tendus devant toi, fais glisser les bras en arc de cercle jusqu’aux hanches </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sans toucher le sol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Garde le front au sol, scapulas engagées.</t>
+    </r>
+  </si>
+  <si>
+    <t>2 × 10-15 reps</t>
+  </si>
+  <si>
+    <t>Étirement croisé bras tendu</t>
+  </si>
+  <si>
+    <t>Relâcher rhomboïdes / trapèze moyen</t>
+  </si>
+  <si>
+    <t>Tends le bras droit devant toi, tire-le avec le bras gauche vers la gauche tout en gardant l’épaule basse. Incline un peu la tête vers le bras opposé pour accentuer.</t>
+  </si>
+  <si>
+    <t>2 × 30 sec de chaque côté</t>
+  </si>
+  <si>
+    <t>Trigger point balle sous omoplate</t>
+  </si>
+  <si>
+    <t>Libérer les tensions profondes (contracture)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dos contre un mur ou allongé au sol, place une balle de massage ou balle dure </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>juste sous l’omoplate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Cherche les zones sensibles, et reste dessus sans bouger 30s, ou fais de petits cercles.</t>
+    </r>
+  </si>
+  <si>
+    <t>2 x 30 sec (sur zones sensibles)</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB1046C-2806-4838-850D-897AC8F40FC4}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G11" sqref="G11:G12"/>
     </sheetView>
   </sheetViews>
@@ -2528,4 +2728,197 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E95B394-7662-4978-8D33-D52F079E70F1}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="26.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="63.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Prog Calli.xlsx
+++ b/Prog Calli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D648776\Documents\Others\karl-sw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{409BCE8A-3287-4CD6-A0FF-981B47AC6B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535B7707-577F-4C95-A3D2-39724F43DB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2460" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{22730877-1A71-490B-BA4E-03BA24752C89}"/>
+    <workbookView xWindow="38280" yWindow="2460" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{22730877-1A71-490B-BA4E-03BA24752C89}"/>
   </bookViews>
   <sheets>
     <sheet name="Séance" sheetId="1" r:id="rId1"/>
@@ -807,18 +807,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.749992370372631"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -828,18 +822,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7C80"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1F4FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5F6DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6DEF4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1155,100 +1233,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1259,6 +1418,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF6DEF4"/>
+      <color rgb="FFE5F6DE"/>
+      <color rgb="FFE1F4FF"/>
+      <color rgb="FFCCECFF"/>
       <color rgb="FFFF7C80"/>
     </mruColors>
   </colors>
@@ -1593,7 +1756,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1615,20 +1778,20 @@
       <c r="A1" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="43"/>
+      <c r="F1" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="50" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1636,19 +1799,19 @@
       <c r="A2" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="39" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1656,19 +1819,19 @@
       <c r="A3" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="40" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1676,11 +1839,11 @@
       <c r="A4" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="F4" s="16" t="s">
+      <c r="D4" s="47"/>
+      <c r="F4" s="38" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1688,87 +1851,87 @@
       <c r="A5" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="30" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="30" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="30" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="30" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="30" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="39" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="26" t="s">
@@ -1776,10 +1939,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="39" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="27" t="s">
@@ -1787,298 +1950,298 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="46" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="40" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="46" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="40" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="46" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="40" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="46" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="39" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="40" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="46" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="50" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="40" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2094,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66A2297-2D0E-4814-AF3A-CAD07F256C39}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2109,380 +2272,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="11">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="11">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="24">
-        <v>46054</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="D4" s="52">
+        <v>2</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="15">
         <v>2</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="15">
         <v>2</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="15">
         <v>2</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="15">
         <v>2</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="11">
         <v>1</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="24">
-        <v>46054</v>
+      <c r="J9" s="52">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="15">
         <v>1</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="11">
         <v>1</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="15">
         <v>2</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="11">
         <v>1</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="15">
         <v>1</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="11">
         <v>2</v>
       </c>
     </row>
@@ -2518,75 +2681,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="2" t="s">
         <v>158</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="2" t="s">
         <v>162</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="2" t="s">
         <v>170</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -2594,37 +2757,37 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="2" t="s">
         <v>146</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="2" t="s">
         <v>160</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="2" t="s">
         <v>164</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="2" t="s">
         <v>172</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -2632,25 +2795,25 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="2" t="s">
         <v>148</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="2" t="s">
         <v>166</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -2658,25 +2821,25 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="2" t="s">
         <v>150</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="2" t="s">
         <v>168</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -2684,19 +2847,19 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="2" t="s">
         <v>152</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -2704,13 +2867,13 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="2" t="s">
         <v>154</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -2718,7 +2881,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="2" t="s">
         <v>156</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -2734,8 +2897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E95B394-7662-4978-8D33-D52F079E70F1}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2749,172 +2912,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="16" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="20" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="24" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="20" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="24" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="20" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="24" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="20" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="24" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="20" t="s">
         <v>224</v>
       </c>
     </row>

--- a/Prog Calli.xlsx
+++ b/Prog Calli.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D648776\Documents\Others\karl-sw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535B7707-577F-4C95-A3D2-39724F43DB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C6EB65-DFF9-4198-81E3-D703FB243995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2460" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{22730877-1A71-490B-BA4E-03BA24752C89}"/>
+    <workbookView xWindow="38280" yWindow="2460" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{22730877-1A71-490B-BA4E-03BA24752C89}"/>
   </bookViews>
   <sheets>
     <sheet name="Séance" sheetId="1" r:id="rId1"/>
     <sheet name="Mobi" sheetId="4" r:id="rId2"/>
     <sheet name="Glossaire" sheetId="5" r:id="rId3"/>
     <sheet name="Rehab" sheetId="6" r:id="rId4"/>
+    <sheet name="Rehab2" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="274">
   <si>
     <t>FLPU</t>
   </si>
@@ -785,12 +786,228 @@
   <si>
     <t>2 x 30 sec (sur zones sensibles)</t>
   </si>
+  <si>
+    <t>🔧 Exercice</t>
+  </si>
+  <si>
+    <t>📊 Séries / reps / hold</t>
+  </si>
+  <si>
+    <t>🧾 Description claire (comment faire)</t>
+  </si>
+  <si>
+    <t>🎯 Utilité</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dos, fesses et omoplates collés au mur. Bras en “W” (coudes pliés). Glisse les bras vers le haut </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sans hausser les épaules ni cambrer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, puis redescends lentement.</t>
+    </r>
+  </si>
+  <si>
+    <t>Activer le trapèze inférieur, apprendre à lever les bras sans surcharge scapulaire</t>
+  </si>
+  <si>
+    <t>1 × 10 cercles avant + 10 arrière</t>
+  </si>
+  <si>
+    <t>Bras tendus devant toi. Sans plier les coudes, fais de grands cercles uniquement avec les épaules. Le tronc reste immobile.</t>
+  </si>
+  <si>
+    <t>Mobiliser les omoplates, préparer les muscles stabilisateurs</t>
+  </si>
+  <si>
+    <t>Rotation externe élastique (coude au corps)</t>
+  </si>
+  <si>
+    <t>2 × 15 reps / côté</t>
+  </si>
+  <si>
+    <t>Coude collé au flanc, avant-bras à 90°. Tourne l’avant-bras vers l’extérieur lentement, contrôle le retour. Aucun mouvement d’épaule.</t>
+  </si>
+  <si>
+    <t>Décharger et renforcer la coiffe (supra / infra-épineux)</t>
+  </si>
+  <si>
+    <t>Pull-ups strictes</t>
+  </si>
+  <si>
+    <t>4 × 6–8 reps (RPE 6–7)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tractions propres, sans élan. Arrête-toi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>avant la fatigue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, bras et scapulas sous contrôle.</t>
+    </r>
+  </si>
+  <si>
+    <t>Maintenir la force verticale sans irriter la zone scapulaire</t>
+  </si>
+  <si>
+    <t>Scapula pull-ups assistés (pieds au sol)</t>
+  </si>
+  <si>
+    <t>3 × 8 reps</t>
+  </si>
+  <si>
+    <t>Bras totalement tendus. À partir de la suspension, engage les omoplates vers le bas et vers l’arrière pour “monter” le corps, puis redescends lentement.</t>
+  </si>
+  <si>
+    <t>Renforcer rétraction + dépression scapulaire spécifiques au front</t>
+  </si>
+  <si>
+    <t>Tuck front lever</t>
+  </si>
+  <si>
+    <t>5–6 × 5–6 s hold</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Position tuck propre. Scapulas engagées, bassin gainé. Stop </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>avant toute fatigue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ou sensation locale sous l’omoplate.</t>
+    </r>
+  </si>
+  <si>
+    <t>Garder le pattern du front lever sans surcharge</t>
+  </si>
+  <si>
+    <t>Front lever avec gros élastique (optionnel)</t>
+  </si>
+  <si>
+    <t>3–4 × 6 s hold</t>
+  </si>
+  <si>
+    <t>Même consigne que le tuck : forme parfaite, tension contrôlée, aucun “laisser aller”.</t>
+  </si>
+  <si>
+    <t>Travail technique + contrôle avec charge réduite</t>
+  </si>
+  <si>
+    <t>Trap 3 raise</t>
+  </si>
+  <si>
+    <t>3 × 10 reps</t>
+  </si>
+  <si>
+    <t>Buste penché ou sur banc. Bras tendu levé en diagonale (~130°), pouce vers le haut. Pause 1 s en haut, redescente lente.</t>
+  </si>
+  <si>
+    <t>Renforcer le trapèze inférieur, protéger la zone sous l’omoplate</t>
+  </si>
+  <si>
+    <t>I–Y–T</t>
+  </si>
+  <si>
+    <t>1–2 circuits (10 reps par lettre)</t>
+  </si>
+  <si>
+    <t>Allongé sur le ventre. Lève les bras successivement en I (devant), Y (diagonale), T (sur les côtés). Mouvement lent, amplitude courte.</t>
+  </si>
+  <si>
+    <t>Rééquilibrer rhomboïdes + trap moyen/inf</t>
+  </si>
+  <si>
+    <t>Trigger point balle sous l’omoplate</t>
+  </si>
+  <si>
+    <t>2–3 min</t>
+  </si>
+  <si>
+    <t>Dos contre un mur ou au sol. Place la balle sous l’omoplate, maintiens une pression lente sur les zones sensibles.</t>
+  </si>
+  <si>
+    <t>Déverrouiller la contracture myofasciale</t>
+  </si>
+  <si>
+    <t>Étirement rhomboïde bras croisé</t>
+  </si>
+  <si>
+    <t>2 × 30 s / côté</t>
+  </si>
+  <si>
+    <t>Bras tendu devant, tiré horizontalement par l’autre bras. Épaules basses, respiration lente.</t>
+  </si>
+  <si>
+    <t>Relâcher les muscles surchargés</t>
+  </si>
+  <si>
+    <t>Respiration lente (expiration longue)</t>
+  </si>
+  <si>
+    <t>2 min</t>
+  </si>
+  <si>
+    <t>Inspire calmement, expire lentement (2× plus long que l’inspiration). Corps relâché.</t>
+  </si>
+  <si>
+    <t>Calmer le système nerveux, faciliter la récupération</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -802,6 +1019,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1252,7 +1475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1407,7 +1630,16 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2257,7 +2489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66A2297-2D0E-4814-AF3A-CAD07F256C39}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -2359,7 +2591,7 @@
       <c r="C4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="19">
         <v>2</v>
       </c>
       <c r="G4" s="12" t="s">
@@ -2501,7 +2733,7 @@
       <c r="I9" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="52">
+      <c r="J9" s="19">
         <v>2</v>
       </c>
     </row>
@@ -2898,7 +3130,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3084,4 +3316,305 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49614AAE-E935-4AF4-B2BC-E9B6E43769E0}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="37.88671875" defaultRowHeight="33.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" style="1"/>
+    <col min="3" max="3" width="86.109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="37.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="52"/>
+    </row>
+    <row r="2" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="53"/>
+    </row>
+    <row r="3" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="53"/>
+    </row>
+    <row r="4" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="53"/>
+    </row>
+    <row r="5" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" s="53"/>
+    </row>
+    <row r="6" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="53"/>
+    </row>
+    <row r="7" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="53"/>
+    </row>
+    <row r="8" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="53"/>
+    </row>
+    <row r="9" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="53"/>
+    </row>
+    <row r="10" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="E10" s="53"/>
+    </row>
+    <row r="11" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="55" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="53"/>
+    </row>
+    <row r="12" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" s="53"/>
+    </row>
+    <row r="13" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="E13" s="53"/>
+    </row>
+    <row r="14" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+    </row>
+    <row r="15" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+    </row>
+    <row r="16" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+    </row>
+    <row r="17" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+    </row>
+    <row r="18" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+    </row>
+    <row r="19" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+    </row>
+    <row r="20" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+    </row>
+    <row r="21" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+    </row>
+    <row r="22" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+    </row>
+    <row r="23" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+    </row>
+    <row r="24" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+    </row>
+    <row r="25" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>